--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2584932.153921435</v>
+        <v>-2587413.073746893</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1379,7 +1379,7 @@
         <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545851</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579958</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104947</v>
+        <v>13.30914685193423</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>222.198732617787</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>58.54123019547293</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>92.64641915799531</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271175</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292092</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443156</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649685</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545851</v>
+        <v>61.67577209757005</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579961</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104949</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>202.3194416139766</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302867</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913427</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.911833594811</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292099</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443156</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>21.94878766482244</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367017</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494647</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649685</v>
+        <v>135.6780707855923</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1640487096471</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816015</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.22112280504604</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
@@ -1901,13 +1901,13 @@
         <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249337</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654128</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998939</v>
@@ -2062,7 +2062,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258339</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833182</v>
@@ -2084,16 +2084,16 @@
         <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>307.9637310891326</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816015</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>92.80638609324798</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249337</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085019</v>
+        <v>134.938373635812</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654128</v>
+        <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998939</v>
@@ -2321,16 +2321,16 @@
         <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816015</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
@@ -2375,13 +2375,13 @@
         <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247764</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074562</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085022</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2542,7 +2542,7 @@
         <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>207.089064341338</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3029,22 +3029,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3332,7 +3332,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>99.70874824091581</v>
       </c>
       <c r="F37" t="n">
-        <v>98.6958336172778</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285836</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>89.94326605922018</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353772</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
         <v>230.0675382420299</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383226</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010732</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922099</v>
+        <v>89.94326605922045</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092319</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621575</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333686</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600708</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705228</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846414</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092319</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333686</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>196.6598613601178</v>
+        <v>196.6598613601169</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.052518175211</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>724.7840324589724</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H11" t="n">
-        <v>81.3169479329911</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3312.162238930449</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3133.376558574395</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039935</v>
+        <v>3133.376558574395</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956089</v>
+        <v>2829.505738490549</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.407555695698</v>
+        <v>2503.929150480158</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.407555695698</v>
+        <v>2157.655459478802</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979609</v>
+        <v>2157.655459478802</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.4074251142001</v>
+        <v>1893.314740099836</v>
       </c>
       <c r="C13" t="n">
-        <v>493.6633094460167</v>
+        <v>1751.570624431653</v>
       </c>
       <c r="D13" t="n">
-        <v>370.7387372934046</v>
+        <v>1751.570624431653</v>
       </c>
       <c r="E13" t="n">
-        <v>370.7387372934046</v>
+        <v>1630.849598108984</v>
       </c>
       <c r="F13" t="n">
-        <v>277.156495719672</v>
+        <v>1511.151717870797</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541145</v>
+        <v>1370.64094850524</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>1251.615828982821</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>1251.615828982821</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>1323.389406551012</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>1554.027534621143</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>1897.238278190894</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361061</v>
+        <v>2268.046268911698</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>2636.105590738818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>2962.086134780487</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>3221.344580335401</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>3262.967431626423</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145083</v>
+        <v>3098.473614712972</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974333</v>
+        <v>3098.473614712972</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359701</v>
+        <v>2836.56281509834</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413537</v>
+        <v>2609.070394152177</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.8054206363</v>
+        <v>2346.84529137494</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980066</v>
+        <v>2146.047807736646</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142001</v>
+        <v>1952.447295852839</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.153151170352</v>
+        <v>1502.254258673504</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.382701489664</v>
+        <v>1160.483808992816</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.382701489664</v>
+        <v>1160.483808992816</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>801.8876236542953</v>
       </c>
       <c r="F14" t="n">
-        <v>739.58886395978</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299113</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5309,19 +5309,19 @@
         <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.358467702586</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.358467702586</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.781879692195</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.508188690839</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.56092397475</v>
+        <v>1861.662031477902</v>
       </c>
     </row>
     <row r="15">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.7166931409549</v>
+        <v>901.2692096237421</v>
       </c>
       <c r="C16" t="n">
-        <v>448.9725774727716</v>
+        <v>759.5250939555589</v>
       </c>
       <c r="D16" t="n">
-        <v>326.0480053201595</v>
+        <v>636.6005218029468</v>
       </c>
       <c r="E16" t="n">
-        <v>326.0480053201595</v>
+        <v>515.8794954802773</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201595</v>
+        <v>396.1816152420906</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705055</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402567</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162334</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.199409571605</v>
+        <v>1883.289170905035</v>
       </c>
       <c r="U16" t="n">
-        <v>1629.288609956972</v>
+        <v>1883.289170905035</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.796189010808</v>
+        <v>1655.796749958872</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.571086233571</v>
+        <v>1393.571647181635</v>
       </c>
       <c r="X16" t="n">
-        <v>938.7736025952777</v>
+        <v>1192.774163543341</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.1730907114711</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.862197398327</v>
+        <v>1518.976134084842</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.655317352227</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>941.0313189532735</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446361</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628256</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,52 +5513,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3290.028929886903</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.692882478922</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.804105960556</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>2723.382918824782</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219625</v>
+        <v>2445.255963762464</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2146.431905709182</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>1830.934273941167</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872287</v>
+        <v>569.1217789872289</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671188</v>
+        <v>474.827296267119</v>
       </c>
       <c r="D19" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625802</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356249</v>
+        <v>975.6272732356254</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454045</v>
+        <v>822.2794225454049</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096714</v>
+        <v>676.1285436096717</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542003</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809388</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104344</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>940.9592424104344</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5780,22 +5780,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3196.213029007449</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417716</v>
+        <v>3017.324252489082</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2760.903065353309</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166342</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872287</v>
+        <v>632.151773123554</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671188</v>
+        <v>537.857290403444</v>
       </c>
       <c r="D22" t="n">
-        <v>399.35235706258</v>
+        <v>462.3823511989052</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879839</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356249</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454045</v>
+        <v>885.30941668173</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096714</v>
+        <v>739.1585377459968</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324338</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.0946095349368</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531262</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>596.0762594713544</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
@@ -6002,37 +6002,37 @@
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2966.809946454459</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3361.584312811637</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567319</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124122</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859014</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451033</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932664</v>
+        <v>3323.013948932666</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796892</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734575</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714078</v>
+        <v>948.409492871408</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902808</v>
+        <v>773.956463590281</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290295</v>
+        <v>625.0220539290299</v>
       </c>
       <c r="E24" t="n">
-        <v>465.784598923574</v>
+        <v>465.7845989235743</v>
       </c>
       <c r="F24" t="n">
-        <v>319.250040950459</v>
+        <v>319.2500409504594</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830771</v>
+        <v>182.8869407830779</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094466</v>
+        <v>92.38504642094486</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243131001</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934474</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061128</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293708828428</v>
+        <v>1219.293708828429</v>
       </c>
       <c r="N24" t="n">
         <v>1692.816752382883</v>
@@ -6087,7 +6087,7 @@
         <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.91918092364</v>
+        <v>2571.919180923641</v>
       </c>
       <c r="R24" t="n">
         <v>2571.774827516156</v>
@@ -6096,13 +6096,13 @@
         <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687491</v>
+        <v>2249.693940687492</v>
       </c>
       <c r="U24" t="n">
         <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590164</v>
+        <v>1786.473985590165</v>
       </c>
       <c r="W24" t="n">
         <v>1532.236628861963</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>575.987417377528</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937439</v>
+        <v>481.692934657418</v>
       </c>
       <c r="D25" t="n">
-        <v>406.217995452879</v>
+        <v>406.2179954528792</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.946602078283</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881696</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.0617317963401</v>
+        <v>96.06173179634017</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248244</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667906</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663397</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942389892617</v>
+        <v>1623.942389892618</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549890326277</v>
@@ -6187,10 +6187,10 @@
         <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>892.1750550720294</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>682.9941819999708</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.800837351328</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.332742023253</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N26" t="n">
-        <v>2265.111559082035</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.07620941149</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.369923216575</v>
+        <v>875.932246148438</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464983</v>
+        <v>1326.966459396847</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136908</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,13 +6540,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257041</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6701,25 +6701,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.09431497013</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849467</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,13 +6734,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,10 +6859,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6871,19 +6871,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6920,7 +6920,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307328</v>
@@ -6929,10 +6929,10 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6941,31 +6941,31 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515854</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964424</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423789</v>
+        <v>383.4688957685354</v>
       </c>
       <c r="D37" t="n">
         <v>332.0236909300431</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214934</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7126,19 +7126,19 @@
         <v>1621.35446039006</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205428</v>
+        <v>886.8213698466993</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963689</v>
+        <v>658.831818948682</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528387</v>
+        <v>536.7106743789952</v>
       </c>
     </row>
     <row r="38">
@@ -7157,7 +7157,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307337</v>
@@ -7166,43 +7166,43 @@
         <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912278</v>
+        <v>642.2355359389144</v>
       </c>
       <c r="C40" t="n">
-        <v>374.6279184371643</v>
+        <v>571.9707875848509</v>
       </c>
       <c r="D40" t="n">
-        <v>323.182713598672</v>
+        <v>421.8541481725151</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>372.6124891639654</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7363,19 +7363,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
         <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649977</v>
+        <v>847.3337107649975</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214676</v>
+        <v>725.2125661953107</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7436,7 +7436,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650716</v>
+        <v>642.2355359389146</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110081</v>
+        <v>571.9707875848511</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725159</v>
+        <v>520.5255827463589</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901227</v>
+        <v>372.6124891639657</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919197</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7600,19 +7600,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V43" t="n">
         <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891718</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649979</v>
+        <v>847.3337107649977</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214678</v>
+        <v>725.212566195311</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
@@ -7646,13 +7646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647789</v>
+        <v>599.6022649647791</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107154</v>
+        <v>529.3375166107156</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722231</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636735</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
         <v>281.7607052657632</v>
@@ -7843,13 +7843,13 @@
         <v>1322.10716072584</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.689990688879</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647053</v>
+        <v>903.3718743647056</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.2507297950186</v>
+        <v>682.5792952211755</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430635</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729013</v>
+        <v>184.4039433729007</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389611</v>
+        <v>191.4948909389603</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333075</v>
+        <v>181.0856325333066</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830248</v>
+        <v>179.355374883024</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383997</v>
+        <v>182.8301554383989</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586591</v>
+        <v>190.8908035586584</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266128</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672279</v>
+        <v>105.9629718672273</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253599</v>
+        <v>104.1013981253592</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677713</v>
+        <v>92.30246558677648</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359741</v>
+        <v>106.8829608359735</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798328</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085227</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530927</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784341</v>
+        <v>339.8144253784363</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>131.2335379367253</v>
+        <v>105.7385611944686</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>233.4533865158185</v>
+        <v>274.8351763665425</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1718867553229</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.95846834911519</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.1220895124997</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913427</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.911833594811</v>
+        <v>94.37060339933795</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.85448227780959</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292098</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.280127057015</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>21.75558375779899</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271175</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>170.6800150242204</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>55.98643597937607</v>
       </c>
     </row>
     <row r="17">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>24.21355985564145</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.07135577741084376</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.01703144685985</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>37.2163008406532</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1234178.380816079</v>
+        <v>1234178.38081608</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377787</v>
+        <v>61445.72540377788</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.72540377787</v>
+        <v>61445.72540377788</v>
       </c>
       <c r="D2" t="n">
         <v>61447.40023544597</v>
       </c>
       <c r="E2" t="n">
-        <v>54715.50006787308</v>
+        <v>54715.50006787306</v>
       </c>
       <c r="F2" t="n">
-        <v>54715.50006787306</v>
+        <v>54715.50006787312</v>
       </c>
       <c r="G2" t="n">
-        <v>59589.81159349021</v>
+        <v>59589.81159349022</v>
       </c>
       <c r="H2" t="n">
         <v>59589.81159349022</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982114</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982115</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982131</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982131</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552194</v>
+        <v>59764.55367552295</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983363</v>
+        <v>22821.46782983379</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179693</v>
+        <v>25409.43302179677</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954654</v>
+        <v>430603.4278954651</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364965</v>
+        <v>40024.16194364972</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364967</v>
+        <v>40024.16194364974</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509198</v>
+        <v>77052.32230509195</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509196</v>
+        <v>77052.32230509195</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754383</v>
+        <v>90617.51027754389</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699581</v>
+        <v>88960.95519699578</v>
       </c>
       <c r="K4" t="n">
         <v>88960.95519699578</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699577</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="M4" t="n">
         <v>92183.89891818169</v>
       </c>
       <c r="N4" t="n">
+        <v>92183.8989181817</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818172</v>
       </c>
-      <c r="O4" t="n">
-        <v>92183.89891818167</v>
-      </c>
       <c r="P4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818173</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186634</v>
+        <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26488,7 +26488,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624987</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424581.8651451873</v>
+        <v>-424586.2787230554</v>
       </c>
       <c r="C6" t="n">
-        <v>-424581.8651451873</v>
+        <v>-424586.2787230554</v>
       </c>
       <c r="D6" t="n">
-        <v>-464069.4867674077</v>
+        <v>-464073.8445175542</v>
       </c>
       <c r="E6" t="n">
-        <v>-1151117.124404236</v>
+        <v>-1151345.878826633</v>
       </c>
       <c r="F6" t="n">
-        <v>-61878.15224060303</v>
+        <v>-62106.90666300132</v>
       </c>
       <c r="G6" t="n">
-        <v>-135561.2631316908</v>
+        <v>-135627.540503235</v>
       </c>
       <c r="H6" t="n">
-        <v>-97981.15383681664</v>
+        <v>-98047.43120836097</v>
       </c>
       <c r="I6" t="n">
-        <v>-137597.3736693983</v>
+        <v>-137597.3736693986</v>
       </c>
       <c r="J6" t="n">
-        <v>-142170.1971537777</v>
+        <v>-142170.1971537775</v>
       </c>
       <c r="K6" t="n">
         <v>-116760.7641319807</v>
@@ -26552,13 +26552,13 @@
         <v>-154340.8734268548</v>
       </c>
       <c r="M6" t="n">
-        <v>-315292.4634773346</v>
+        <v>-315292.4634773345</v>
       </c>
       <c r="N6" t="n">
         <v>-113124.3634846103</v>
       </c>
       <c r="O6" t="n">
-        <v>-113124.3634846102</v>
+        <v>-113124.3634846103</v>
       </c>
       <c r="P6" t="n">
         <v>-113124.3634846103</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790543</v>
+        <v>69.78465283790661</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26808,10 +26808,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810305</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712634</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951241</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790543</v>
+        <v>69.78465283790661</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873761</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.11452592758394</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712634</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780177</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672114</v>
+        <v>84.22861846672104</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698753</v>
+        <v>90.83829126987516</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519096</v>
+        <v>84.46220888519082</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990539</v>
+        <v>7.649035050990292</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317066</v>
+        <v>75.62456067317049</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712641</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712635</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T19" t="n">
-        <v>11.49558901075636</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571898</v>
+        <v>11.4955890107571</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075716</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075636</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075679</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859114</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>46.72521440565336</v>
       </c>
       <c r="F37" t="n">
-        <v>46.72521440565345</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371081</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810334</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371026</v>
+        <v>55.4777819637108</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>55.47778196371019</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810504</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810504</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413281</v>
+        <v>0.2805413179413329</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366627</v>
+        <v>2.873093772366676</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993306</v>
+        <v>10.81556915993325</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362282</v>
+        <v>23.81059368362322</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207925</v>
+        <v>35.68590767207985</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102617</v>
+        <v>44.27152403102693</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396527</v>
+        <v>49.2606006939661</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356607</v>
+        <v>50.05768871356692</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328698</v>
+        <v>47.26805598328779</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661044</v>
+        <v>40.34219219661112</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783662</v>
+        <v>30.29530624783713</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313197</v>
+        <v>17.62255356313227</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588021</v>
+        <v>6.39283528258813</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288165</v>
+        <v>1.228069619288185</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530625</v>
+        <v>0.02244330543530662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796456</v>
+        <v>0.1501028381796482</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840262</v>
+        <v>1.449677410840287</v>
       </c>
       <c r="I9" t="n">
-        <v>5.16801438469394</v>
+        <v>5.168014384694028</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906907</v>
+        <v>14.18142647906931</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710532</v>
+        <v>24.23831663710573</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126463</v>
+        <v>32.59140791264686</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665845</v>
+        <v>38.03263579665909</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655617</v>
+        <v>39.03924649655683</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847033</v>
+        <v>35.71328360847094</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449742</v>
+        <v>28.66305863449791</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447547</v>
+        <v>19.16049562447579</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767827</v>
+        <v>9.319542882767983</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608767</v>
+        <v>2.788094384608814</v>
       </c>
       <c r="T9" t="n">
-        <v>0.60501977318901</v>
+        <v>0.6050197731890202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345112</v>
+        <v>0.009875186722345278</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486819</v>
+        <v>0.125841177248684</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811009</v>
+        <v>1.118842466811028</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078544</v>
+        <v>3.784387403078608</v>
       </c>
       <c r="J10" t="n">
-        <v>8.89697123148181</v>
+        <v>8.89697123148196</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489231</v>
+        <v>14.62045677489256</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477222</v>
+        <v>18.70915102477253</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908202</v>
+        <v>19.72617653908235</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115513</v>
+        <v>19.25713215115545</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875006</v>
+        <v>17.78707839875036</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287694</v>
+        <v>15.2199183828772</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852372</v>
+        <v>10.5374825785239</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381641</v>
+        <v>5.658276933381737</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233847</v>
+        <v>2.193068516233883</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625499</v>
+        <v>0.5376850300625589</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564476</v>
+        <v>0.006864064213564591</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,13 +33737,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019259</v>
+        <v>72.49856320019263</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019256</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546664</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666532</v>
+        <v>847.8674262666555</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8236523290575</v>
+        <v>561.3286755868007</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36765,7 +36765,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>570.644673071219</v>
+        <v>612.026462921943</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9338729746947</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412309</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637028</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37385,13 +37385,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
